--- a/dataExcel/【MAC-10（StatTrak™） _ 渐变迪斯科 (战痕累累)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【MAC-10（StatTrak™） _ 渐变迪斯科 (战痕累累)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,225 +431,225 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-17 11:14:07</v>
+        <v>2023-09-19 10:43:03</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C8">
-        <v>24.05</v>
+        <v>27.24</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F8">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-17 14:54:26</v>
+        <v>2023-09-19 14:22:46</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C9">
-        <v>24.05</v>
+        <v>27.24</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E9">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F9">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 15:01:03</v>
+        <v>2023-09-19 18:05:29</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C10">
-        <v>24.05</v>
+        <v>27.24</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 18:40:48</v>
+        <v>2023-09-19 18:13:13</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C11">
-        <v>24.05</v>
+        <v>27.24</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 22:19:55</v>
+        <v>2023-09-19 21:53:35</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C12">
-        <v>24.05</v>
+        <v>27.24</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-18 01:56:36</v>
+        <v>2023-09-20 01:33:46</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C13">
-        <v>24.05</v>
+        <v>27.24</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F13">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>18.1</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-18 05:33:18</v>
+        <v>2023-09-20 05:11:12</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C14">
-        <v>24.89</v>
+        <v>24.7</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F14">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>18.1</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 09:14:24</v>
+        <v>2023-09-20 08:51:35</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C15">
-        <v>24.89</v>
+        <v>24.7</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F15">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -658,427 +658,427 @@
         <v>18.1</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 12:47:49</v>
+        <v>2023-09-20 12:30:24</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C16">
-        <v>24.89</v>
+        <v>24.7</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="F16">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>18.1</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 16:28:00</v>
+        <v>2023-09-20 16:02:50</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C17">
-        <v>24.89</v>
+        <v>24.7</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F17">
         <v>0.1</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>18.1</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 20:11:06</v>
+        <v>2023-09-20 16:06:49</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C18">
-        <v>24.89</v>
+        <v>24.7</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F18">
         <v>0.1</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>18.1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 23:51:58</v>
+        <v>2023-09-20 19:47:02</v>
       </c>
       <c r="B19">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C19">
-        <v>24.89</v>
+        <v>24.7</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F19">
         <v>0.1</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 03:28:26</v>
+        <v>2023-09-20 23:23:42</v>
       </c>
       <c r="B20">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C20">
-        <v>27.24</v>
+        <v>24.7</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F20">
         <v>0.1</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 07:06:10</v>
+        <v>2023-09-21 03:06:27</v>
       </c>
       <c r="B21">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C21">
-        <v>27.24</v>
+        <v>26.59</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F21">
         <v>0.1</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 10:43:03</v>
+        <v>2023-09-21 06:45:56</v>
       </c>
       <c r="B22">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C22">
-        <v>27.24</v>
+        <v>26.59</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F22">
         <v>0.1</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 14:22:46</v>
+        <v>2023-09-21 10:23:58</v>
       </c>
       <c r="B23">
         <v>20.8</v>
       </c>
       <c r="C23">
-        <v>27.24</v>
+        <v>26.59</v>
       </c>
       <c r="D23">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F23">
         <v>0.1</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 18:05:29</v>
+        <v>2023-09-21 14:04:31</v>
       </c>
       <c r="B24">
         <v>20.8</v>
       </c>
       <c r="C24">
-        <v>27.24</v>
+        <v>26.59</v>
       </c>
       <c r="D24">
         <v>42</v>
       </c>
       <c r="E24">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F24">
         <v>0.1</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 18:13:13</v>
+        <v>2023-09-21 17:39:38</v>
       </c>
       <c r="B25">
         <v>20.8</v>
       </c>
       <c r="C25">
-        <v>27.24</v>
+        <v>26.59</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F25">
         <v>0.1</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 21:53:35</v>
+        <v>2023-09-21 21:16:43</v>
       </c>
       <c r="B26">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C26">
-        <v>27.24</v>
+        <v>26.59</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F26">
         <v>0.1</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 01:33:46</v>
+        <v>2023-09-21 21:22:53</v>
       </c>
       <c r="B27">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C27">
-        <v>27.24</v>
+        <v>26.59</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F27">
         <v>0.1</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 05:11:12</v>
+        <v>2023-09-22 01:02:49</v>
       </c>
       <c r="B28">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C28">
-        <v>24.7</v>
+        <v>26.59</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F28">
         <v>0.1</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-20 08:51:35</v>
+        <v>2023-09-22 04:38:15</v>
       </c>
       <c r="B29">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F29">
         <v>0.1</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-20 12:30:24</v>
+        <v>2023-09-22 08:16:33</v>
       </c>
       <c r="B30">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0.15</v>
@@ -1090,24 +1090,24 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-20 16:02:50</v>
+        <v>2023-09-22 11:56:41</v>
       </c>
       <c r="B31">
-        <v>20.7</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0.15</v>
@@ -1119,24 +1119,24 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 16:06:49</v>
+        <v>2023-09-22 15:38:47</v>
       </c>
       <c r="B32">
-        <v>20.7</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>0.15</v>
@@ -1148,24 +1148,24 @@
         <v>8</v>
       </c>
       <c r="H32">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 19:47:02</v>
+        <v>2023-09-22 19:15:25</v>
       </c>
       <c r="B33">
-        <v>20.8</v>
+        <v>22.9</v>
       </c>
       <c r="C33">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>0.15</v>
@@ -1180,21 +1180,21 @@
         <v>18.2</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 23:23:42</v>
+        <v>2023-09-22 22:54:49</v>
       </c>
       <c r="B34">
-        <v>20.8</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>0.15</v>
@@ -1209,21 +1209,21 @@
         <v>18.2</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-21 03:06:27</v>
+        <v>2023-09-23 02:34:54</v>
       </c>
       <c r="B35">
-        <v>20.8</v>
+        <v>23</v>
       </c>
       <c r="C35">
-        <v>26.59</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>0.15</v>
@@ -1238,21 +1238,21 @@
         <v>18.2</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-21 06:45:56</v>
+        <v>2023-09-23 06:12:35</v>
       </c>
       <c r="B36">
-        <v>20.8</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>26.59</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>0.15</v>
@@ -1267,21 +1267,21 @@
         <v>18.2</v>
       </c>
       <c r="I36">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-21 10:23:58</v>
+        <v>2023-09-23 09:48:28</v>
       </c>
       <c r="B37">
-        <v>20.8</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>26.59</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E37">
         <v>0.15</v>
@@ -1296,21 +1296,21 @@
         <v>18.2</v>
       </c>
       <c r="I37">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-21 14:04:31</v>
+        <v>2023-09-23 13:27:42</v>
       </c>
       <c r="B38">
-        <v>20.8</v>
+        <v>23</v>
       </c>
       <c r="C38">
-        <v>26.59</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E38">
         <v>0.15</v>
@@ -1330,16 +1330,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-21 17:39:38</v>
+        <v>2023-09-23 17:10:00</v>
       </c>
       <c r="B39">
-        <v>20.8</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>26.59</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39">
         <v>0.15</v>
@@ -1351,24 +1351,24 @@
         <v>8</v>
       </c>
       <c r="H39">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="I39">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-21 21:16:43</v>
+        <v>2023-09-23 17:14:15</v>
       </c>
       <c r="B40">
-        <v>20.8</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>26.59</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <v>0.15</v>
@@ -1380,65 +1380,65 @@
         <v>8</v>
       </c>
       <c r="H40">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-21 21:22:53</v>
+        <v>2023-09-23 20:56:07</v>
       </c>
       <c r="B41">
-        <v>20.8</v>
+        <v>23.9</v>
       </c>
       <c r="C41">
-        <v>26.59</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E41">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F41">
         <v>0.1</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H41">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="I41">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-22 01:02:49</v>
+        <v>2023-09-24 00:35:41</v>
       </c>
       <c r="B42">
-        <v>20.8</v>
+        <v>23.9</v>
       </c>
       <c r="C42">
-        <v>26.59</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E42">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F42">
         <v>0.1</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H42">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="I42">
         <v>7</v>
@@ -1446,28 +1446,28 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-22 04:38:15</v>
+        <v>2023-09-24 04:13:21</v>
       </c>
       <c r="B43">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F43">
         <v>0.1</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="I43">
         <v>7</v>
@@ -1475,28 +1475,28 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-22 08:16:33</v>
+        <v>2023-09-24 07:46:47</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F44">
         <v>0.1</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="I44">
         <v>7</v>
@@ -1504,306 +1504,306 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-22 11:56:41</v>
+        <v>2023-09-24 11:27:17</v>
       </c>
       <c r="B45">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D45">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E45">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F45">
         <v>0.1</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="I45">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-22 15:38:47</v>
+        <v>2023-09-24 15:07:17</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D46">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E46">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F46">
         <v>0.1</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H46">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-22 19:15:25</v>
+        <v>2023-09-24 18:44:54</v>
       </c>
       <c r="B47">
-        <v>22.9</v>
+        <v>23.9</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D47">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E47">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F47">
         <v>0.1</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-22 22:54:49</v>
+        <v>2023-09-24 22:26:23</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F48">
         <v>0.1</v>
       </c>
       <c r="G48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>18.2</v>
+        <v>19.6</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-23 02:34:54</v>
+        <v>2023-09-25 02:06:39</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E49">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F49">
         <v>0.1</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-23 06:12:35</v>
+        <v>2023-09-25 05:47:57</v>
       </c>
       <c r="B50">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D50">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E50">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F50">
         <v>0.1</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H50">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-23 09:48:28</v>
+        <v>2023-09-25 09:23:22</v>
       </c>
       <c r="B51">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D51">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E51">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F51">
         <v>0.1</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-23 13:27:42</v>
+        <v>2023-09-25 12:58:15</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D52">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E52">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F52">
         <v>0.1</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H52">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
       <c r="I52">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-23 17:10:00</v>
+        <v>2023-09-25 16:36:41</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D53">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E53">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F53">
         <v>0.1</v>
       </c>
       <c r="G53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H53">
-        <v>18.3</v>
+        <v>19.7</v>
       </c>
       <c r="I53">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-23 17:14:15</v>
+        <v>2023-09-25 20:13:28</v>
       </c>
       <c r="B54">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D54">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E54">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F54">
         <v>0.1</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H54">
-        <v>18.3</v>
+        <v>19.7</v>
       </c>
       <c r="I54">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-23 20:56:07</v>
+        <v>2023-09-25 23:51:23</v>
       </c>
       <c r="B55">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D55">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E55">
         <v>0.1</v>
@@ -1812,27 +1812,27 @@
         <v>0.1</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55">
-        <v>18.3</v>
+        <v>20</v>
       </c>
       <c r="I55">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-24 00:35:41</v>
+        <v>2023-09-25 23:57:41</v>
       </c>
       <c r="B56">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>26.65</v>
       </c>
       <c r="D56">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E56">
         <v>0.1</v>
@@ -1841,10 +1841,10 @@
         <v>0.1</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H56">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="I56">
         <v>7</v>
@@ -1852,16 +1852,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-24 04:13:21</v>
+        <v>2023-09-26 03:36:39</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>23.63</v>
       </c>
       <c r="C57">
-        <v>26.65</v>
+        <v>28.66</v>
       </c>
       <c r="D57">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E57">
         <v>0.1</v>
@@ -1870,10 +1870,10 @@
         <v>0.1</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="I57">
         <v>7</v>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-24 07:46:47</v>
+        <v>2023-09-26 07:18:00</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>23.63</v>
       </c>
       <c r="C58">
-        <v>26.65</v>
+        <v>28.66</v>
       </c>
       <c r="D58">
         <v>35</v>
@@ -1899,24 +1899,24 @@
         <v>0.1</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H58">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-24 11:27:17</v>
+        <v>2023-09-26 10:57:59</v>
       </c>
       <c r="B59">
-        <v>24</v>
+        <v>23.63</v>
       </c>
       <c r="C59">
-        <v>26.65</v>
+        <v>28.66</v>
       </c>
       <c r="D59">
         <v>35</v>
@@ -1928,24 +1928,24 @@
         <v>0.1</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="I59">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-24 15:07:17</v>
+        <v>2023-09-26 14:37:47</v>
       </c>
       <c r="B60">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="C60">
-        <v>26.65</v>
+        <v>28.66</v>
       </c>
       <c r="D60">
         <v>34</v>
@@ -1957,10 +1957,10 @@
         <v>0.1</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H60">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="I60">
         <v>7</v>
@@ -1968,16 +1968,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-24 18:44:54</v>
+        <v>2023-09-26 18:17:50</v>
       </c>
       <c r="B61">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C61">
-        <v>26.65</v>
+        <v>28.66</v>
       </c>
       <c r="D61">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E61">
         <v>0.1</v>
@@ -1986,27 +1986,27 @@
         <v>0.1</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-24 22:26:23</v>
+        <v>2023-09-26 21:53:49</v>
       </c>
       <c r="B62">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C62">
-        <v>26.65</v>
+        <v>28.66</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E62">
         <v>0.1</v>
@@ -2015,10 +2015,10 @@
         <v>0.1</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H62">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="I62">
         <v>7</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-25 02:06:39</v>
+        <v>2023-09-27 01:30:21</v>
       </c>
       <c r="B63">
         <v>23.8</v>
       </c>
       <c r="C63">
-        <v>26.65</v>
+        <v>28.66</v>
       </c>
       <c r="D63">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E63">
         <v>0.1</v>
@@ -2044,10 +2044,10 @@
         <v>0.1</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H63">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I63">
         <v>8</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-25 05:47:57</v>
+        <v>2023-09-27 05:10:23</v>
       </c>
       <c r="B64">
         <v>23.8</v>
       </c>
       <c r="C64">
-        <v>26.65</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E64">
         <v>0.1</v>
@@ -2073,10 +2073,10 @@
         <v>0.1</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H64">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I64">
         <v>8</v>
@@ -2084,16 +2084,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-25 09:23:22</v>
+        <v>2023-09-27 08:47:40</v>
       </c>
       <c r="B65">
         <v>23.8</v>
       </c>
       <c r="C65">
-        <v>26.65</v>
+        <v>26</v>
       </c>
       <c r="D65">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E65">
         <v>0.1</v>
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="H65">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I65">
         <v>8</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-25 12:58:15</v>
+        <v>2023-09-27 12:30:06</v>
       </c>
       <c r="B66">
         <v>23.8</v>
       </c>
       <c r="C66">
-        <v>26.65</v>
+        <v>26</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E66">
         <v>0.1</v>
@@ -2134,21 +2134,21 @@
         <v>9</v>
       </c>
       <c r="H66">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I66">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-25 16:36:41</v>
+        <v>2023-09-27 16:09:49</v>
       </c>
       <c r="B67">
         <v>23.8</v>
       </c>
       <c r="C67">
-        <v>26.65</v>
+        <v>26</v>
       </c>
       <c r="D67">
         <v>34</v>
@@ -2163,21 +2163,21 @@
         <v>9</v>
       </c>
       <c r="H67">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-25 20:13:28</v>
+        <v>2023-09-27 19:51:13</v>
       </c>
       <c r="B68">
         <v>23.8</v>
       </c>
       <c r="C68">
-        <v>26.65</v>
+        <v>26</v>
       </c>
       <c r="D68">
         <v>34</v>
@@ -2192,21 +2192,21 @@
         <v>9</v>
       </c>
       <c r="H68">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-25 23:51:23</v>
+        <v>2023-09-27 23:27:36</v>
       </c>
       <c r="B69">
         <v>23.8</v>
       </c>
       <c r="C69">
-        <v>26.65</v>
+        <v>26</v>
       </c>
       <c r="D69">
         <v>34</v>
@@ -2221,7 +2221,7 @@
         <v>9</v>
       </c>
       <c r="H69">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I69">
         <v>7</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-25 23:57:41</v>
+        <v>2023-09-28 03:07:38</v>
       </c>
       <c r="B70">
         <v>23.8</v>
       </c>
       <c r="C70">
-        <v>26.65</v>
+        <v>25.87</v>
       </c>
       <c r="D70">
         <v>34</v>
@@ -2250,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="H70">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I70">
         <v>7</v>
@@ -2258,16 +2258,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-26 03:36:39</v>
+        <v>2023-09-28 06:47:35</v>
       </c>
       <c r="B71">
-        <v>23.63</v>
+        <v>23.8</v>
       </c>
       <c r="C71">
-        <v>28.66</v>
+        <v>25.87</v>
       </c>
       <c r="D71">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71">
         <v>0.1</v>
@@ -2279,7 +2279,7 @@
         <v>9</v>
       </c>
       <c r="H71">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I71">
         <v>7</v>
@@ -2287,16 +2287,16 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-26 07:18:00</v>
+        <v>2023-09-28 10:24:51</v>
       </c>
       <c r="B72">
-        <v>23.63</v>
+        <v>23.8</v>
       </c>
       <c r="C72">
-        <v>28.66</v>
+        <v>25.87</v>
       </c>
       <c r="D72">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E72">
         <v>0.1</v>
@@ -2305,10 +2305,10 @@
         <v>0.1</v>
       </c>
       <c r="G72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H72">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I72">
         <v>6</v>
@@ -2316,16 +2316,16 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-26 10:57:59</v>
+        <v>2023-09-28 14:02:12</v>
       </c>
       <c r="B73">
-        <v>23.63</v>
+        <v>23.8</v>
       </c>
       <c r="C73">
-        <v>28.66</v>
+        <v>25.87</v>
       </c>
       <c r="D73">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E73">
         <v>0.1</v>
@@ -2334,27 +2334,27 @@
         <v>0.1</v>
       </c>
       <c r="G73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H73">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-26 14:37:47</v>
+        <v>2023-09-28 17:39:22</v>
       </c>
       <c r="B74">
         <v>23.8</v>
       </c>
       <c r="C74">
-        <v>28.66</v>
+        <v>25.87</v>
       </c>
       <c r="D74">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E74">
         <v>0.1</v>
@@ -2363,349 +2363,331 @@
         <v>0.1</v>
       </c>
       <c r="G74">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H74">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-26 18:17:50</v>
+        <v>2023-09-28 21:18:26</v>
       </c>
       <c r="B75">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="C75">
-        <v>28.66</v>
+        <v>25.87</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E75">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F75">
         <v>0.1</v>
       </c>
       <c r="G75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H75">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-26 21:53:49</v>
+        <v>2023-09-29 01:01:41</v>
       </c>
       <c r="B76">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="C76">
-        <v>28.66</v>
+        <v>25.87</v>
       </c>
       <c r="D76">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E76">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F76">
         <v>0.1</v>
       </c>
       <c r="G76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I76">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-27 01:30:21</v>
+        <v>2023-09-29 04:41:26</v>
       </c>
       <c r="B77">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="C77">
-        <v>28.66</v>
+        <v>26.98</v>
       </c>
       <c r="D77">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E77">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F77">
         <v>0.1</v>
       </c>
       <c r="G77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I77">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-27 05:10:23</v>
+        <v>2023-09-29 08:20:41</v>
       </c>
       <c r="B78">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="C78">
-        <v>26</v>
+        <v>26.98</v>
       </c>
       <c r="D78">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E78">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F78">
         <v>0.1</v>
       </c>
       <c r="G78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-27 08:47:40</v>
+        <v>2023-09-29 11:55:31</v>
       </c>
       <c r="B79">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="C79">
-        <v>26</v>
+        <v>26.98</v>
       </c>
       <c r="D79">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E79">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F79">
         <v>0.1</v>
       </c>
       <c r="G79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H79">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I79">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-27 12:30:06</v>
+        <v>2023-09-29 15:31:55</v>
       </c>
       <c r="B80">
-        <v>23.8</v>
+        <v>22.99</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>26.98</v>
       </c>
       <c r="D80">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E80">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F80">
         <v>0.1</v>
       </c>
       <c r="G80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H80">
-        <v>20</v>
+        <v>17.89</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-27 16:09:49</v>
+        <v>2023-09-29 19:09:24</v>
       </c>
       <c r="B81">
-        <v>23.8</v>
+        <v>22.89</v>
       </c>
       <c r="C81">
-        <v>26</v>
+        <v>26.98</v>
       </c>
       <c r="D81">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E81">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F81">
         <v>0.1</v>
       </c>
       <c r="G81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>20</v>
+        <v>17.89</v>
       </c>
       <c r="I81">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-27 19:51:13</v>
+        <v>2023-09-29 22:47:01</v>
       </c>
       <c r="B82">
-        <v>23.8</v>
+        <v>22.79</v>
       </c>
       <c r="C82">
-        <v>26</v>
+        <v>26.98</v>
       </c>
       <c r="D82">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E82">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F82">
         <v>0.1</v>
       </c>
       <c r="G82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H82">
-        <v>20</v>
+        <v>17.89</v>
       </c>
       <c r="I82">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-27 23:27:36</v>
+        <v>2023-09-30 02:29:14</v>
       </c>
       <c r="B83">
-        <v>23.8</v>
+        <v>22.79</v>
       </c>
       <c r="C83">
-        <v>26</v>
+        <v>28.41</v>
       </c>
       <c r="D83">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E83">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F83">
         <v>0.1</v>
       </c>
       <c r="G83">
-        <v>9</v>
-      </c>
-      <c r="H83">
-        <v>20.1</v>
-      </c>
-      <c r="I83">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-28 03:07:38</v>
+        <v>2023-09-30 06:06:21</v>
       </c>
       <c r="B84">
-        <v>23.8</v>
+        <v>22.79</v>
       </c>
       <c r="C84">
-        <v>25.87</v>
+        <v>28.41</v>
       </c>
       <c r="D84">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E84">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F84">
         <v>0.1</v>
       </c>
       <c r="G84">
-        <v>9</v>
-      </c>
-      <c r="H84">
-        <v>20.1</v>
-      </c>
-      <c r="I84">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-28 06:47:35</v>
+        <v>2023-09-30 06:10:52</v>
       </c>
       <c r="B85">
-        <v>23.8</v>
+        <v>22.79</v>
       </c>
       <c r="C85">
-        <v>25.87</v>
+        <v>28.41</v>
       </c>
       <c r="D85">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E85">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F85">
         <v>0.1</v>
       </c>
       <c r="G85">
-        <v>9</v>
-      </c>
-      <c r="H85">
-        <v>20.1</v>
-      </c>
-      <c r="I85">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-28 10:24:51</v>
+        <v>2023-09-30 09:54:03</v>
       </c>
       <c r="B86">
-        <v>23.8</v>
+        <v>22.79</v>
       </c>
       <c r="C86">
-        <v>25.87</v>
+        <v>28.41</v>
       </c>
       <c r="D86">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E86">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F86">
         <v>0.1</v>
@@ -2714,56 +2696,50 @@
         <v>8</v>
       </c>
       <c r="H86">
-        <v>20.1</v>
+        <v>17.89</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-28 14:02:12</v>
+        <v>2023-09-30 13:31:38</v>
       </c>
       <c r="B87">
-        <v>23.8</v>
+        <v>22.79</v>
       </c>
       <c r="C87">
-        <v>25.87</v>
+        <v>28.41</v>
       </c>
       <c r="D87">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F87">
         <v>0.1</v>
       </c>
       <c r="G87">
         <v>8</v>
-      </c>
-      <c r="H87">
-        <v>20.1</v>
-      </c>
-      <c r="I87">
-        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-28 17:39:22</v>
+        <v>2023-09-30 17:11:56</v>
       </c>
       <c r="B88">
-        <v>23.8</v>
+        <v>22.79</v>
       </c>
       <c r="C88">
-        <v>25.87</v>
+        <v>28.41</v>
       </c>
       <c r="D88">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E88">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F88">
         <v>0.1</v>
@@ -2772,24 +2748,24 @@
         <v>8</v>
       </c>
       <c r="H88">
-        <v>20.1</v>
+        <v>15</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-28 21:18:26</v>
+        <v>2023-09-30 20:51:34</v>
       </c>
       <c r="B89">
-        <v>23.5</v>
+        <v>22.79</v>
       </c>
       <c r="C89">
-        <v>25.87</v>
+        <v>28.41</v>
       </c>
       <c r="D89">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E89">
         <v>0.17</v>
@@ -2801,24 +2777,24 @@
         <v>8</v>
       </c>
       <c r="H89">
-        <v>20.1</v>
+        <v>15</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-29 01:01:41</v>
+        <v>2023-10-01 00:28:53</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>22.69</v>
       </c>
       <c r="C90">
-        <v>25.87</v>
+        <v>28.41</v>
       </c>
       <c r="D90">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E90">
         <v>0.17</v>
@@ -2830,24 +2806,24 @@
         <v>8</v>
       </c>
       <c r="H90">
-        <v>20.1</v>
+        <v>15</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-29 04:41:26</v>
+        <v>2023-10-01 04:04:56</v>
       </c>
       <c r="B91">
-        <v>23</v>
+        <v>22.69</v>
       </c>
       <c r="C91">
-        <v>26.98</v>
+        <v>25.8</v>
       </c>
       <c r="D91">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E91">
         <v>0.17</v>
@@ -2859,24 +2835,24 @@
         <v>8</v>
       </c>
       <c r="H91">
-        <v>20.1</v>
+        <v>15</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-29 08:20:41</v>
+        <v>2023-10-01 07:45:14</v>
       </c>
       <c r="B92">
-        <v>23</v>
+        <v>22.69</v>
       </c>
       <c r="C92">
-        <v>26.98</v>
+        <v>25.8</v>
       </c>
       <c r="D92">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E92">
         <v>0.17</v>
@@ -2888,24 +2864,24 @@
         <v>8</v>
       </c>
       <c r="H92">
-        <v>20.1</v>
+        <v>15</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-29 11:55:31</v>
+        <v>2023-10-01 11:24:38</v>
       </c>
       <c r="B93">
-        <v>23</v>
+        <v>22.59</v>
       </c>
       <c r="C93">
-        <v>26.98</v>
+        <v>25.8</v>
       </c>
       <c r="D93">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E93">
         <v>0.17</v>
@@ -2914,27 +2890,27 @@
         <v>0.1</v>
       </c>
       <c r="G93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H93">
-        <v>20.1</v>
+        <v>15</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-29 15:31:55</v>
+        <v>2023-10-01 15:04:40</v>
       </c>
       <c r="B94">
-        <v>22.99</v>
+        <v>22.59</v>
       </c>
       <c r="C94">
-        <v>26.98</v>
+        <v>25.8</v>
       </c>
       <c r="D94">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E94">
         <v>0.17</v>
@@ -2943,10 +2919,10 @@
         <v>0.1</v>
       </c>
       <c r="G94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H94">
-        <v>17.89</v>
+        <v>15</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -2954,16 +2930,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-29 19:09:24</v>
+        <v>2023-10-01 18:46:23</v>
       </c>
       <c r="B95">
-        <v>22.89</v>
+        <v>22.59</v>
       </c>
       <c r="C95">
-        <v>26.98</v>
+        <v>25.8</v>
       </c>
       <c r="D95">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E95">
         <v>0.17</v>
@@ -2972,10 +2948,10 @@
         <v>0.1</v>
       </c>
       <c r="G95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H95">
-        <v>17.89</v>
+        <v>15</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -2983,13 +2959,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-29 22:47:01</v>
+        <v>2023-10-01 22:24:07</v>
       </c>
       <c r="B96">
-        <v>22.79</v>
+        <v>22.59</v>
       </c>
       <c r="C96">
-        <v>26.98</v>
+        <v>25.8</v>
       </c>
       <c r="D96">
         <v>43</v>
@@ -3001,27 +2977,27 @@
         <v>0.1</v>
       </c>
       <c r="G96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H96">
-        <v>17.89</v>
+        <v>15.1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-30 02:29:14</v>
+        <v>2023-10-02 01:59:24</v>
       </c>
       <c r="B97">
-        <v>22.79</v>
+        <v>22.59</v>
       </c>
       <c r="C97">
-        <v>28.41</v>
+        <v>25.8</v>
       </c>
       <c r="D97">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E97">
         <v>0.17</v>
@@ -3031,20 +3007,26 @@
       </c>
       <c r="G97">
         <v>8</v>
+      </c>
+      <c r="H97">
+        <v>15.1</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-30 06:06:21</v>
+        <v>2023-10-02 05:36:37</v>
       </c>
       <c r="B98">
-        <v>22.79</v>
+        <v>22.59</v>
       </c>
       <c r="C98">
-        <v>28.41</v>
+        <v>25.87</v>
       </c>
       <c r="D98">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E98">
         <v>0.17</v>
@@ -3054,20 +3036,26 @@
       </c>
       <c r="G98">
         <v>8</v>
+      </c>
+      <c r="H98">
+        <v>15.1</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-30 06:10:52</v>
+        <v>2023-10-02 09:16:20</v>
       </c>
       <c r="B99">
-        <v>22.79</v>
+        <v>22.58</v>
       </c>
       <c r="C99">
-        <v>28.41</v>
+        <v>25.87</v>
       </c>
       <c r="D99">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E99">
         <v>0.17</v>
@@ -3077,20 +3065,26 @@
       </c>
       <c r="G99">
         <v>8</v>
+      </c>
+      <c r="H99">
+        <v>15.1</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-30 09:54:03</v>
+        <v>2023-10-02 12:53:00</v>
       </c>
       <c r="B100">
-        <v>22.79</v>
+        <v>22.58</v>
       </c>
       <c r="C100">
-        <v>28.41</v>
+        <v>25.87</v>
       </c>
       <c r="D100">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E100">
         <v>0.17</v>
@@ -3102,44 +3096,50 @@
         <v>8</v>
       </c>
       <c r="H100">
-        <v>17.89</v>
+        <v>15.3</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-30 13:31:38</v>
+        <v>2023-10-02 16:33:22</v>
       </c>
       <c r="B101">
-        <v>22.79</v>
+        <v>22.58</v>
       </c>
       <c r="C101">
-        <v>28.41</v>
+        <v>25.87</v>
       </c>
       <c r="D101">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E101">
         <v>0.17</v>
       </c>
       <c r="F101">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H101">
+        <v>15.4</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-30 17:11:56</v>
+        <v>2023-10-02 20:14:58</v>
       </c>
       <c r="B102">
-        <v>22.79</v>
+        <v>22.48</v>
       </c>
       <c r="C102">
-        <v>28.41</v>
+        <v>25.87</v>
       </c>
       <c r="D102">
         <v>42</v>
@@ -3148,27 +3148,27 @@
         <v>0.17</v>
       </c>
       <c r="F102">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H102">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-30 20:51:34</v>
+        <v>2023-10-02 23:55:29</v>
       </c>
       <c r="B103">
-        <v>22.79</v>
+        <v>22.3</v>
       </c>
       <c r="C103">
-        <v>28.41</v>
+        <v>25.87</v>
       </c>
       <c r="D103">
         <v>42</v>
@@ -3177,201 +3177,201 @@
         <v>0.17</v>
       </c>
       <c r="F103">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G103">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H103">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-01 00:28:53</v>
+        <v>2023-10-03 03:34:23</v>
       </c>
       <c r="B104">
-        <v>22.69</v>
+        <v>22.3</v>
       </c>
       <c r="C104">
-        <v>28.41</v>
+        <v>24.64</v>
       </c>
       <c r="D104">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E104">
         <v>0.17</v>
       </c>
       <c r="F104">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G104">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H104">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-01 04:04:56</v>
+        <v>2023-10-03 07:13:32</v>
       </c>
       <c r="B105">
-        <v>22.69</v>
+        <v>22.3</v>
       </c>
       <c r="C105">
-        <v>25.8</v>
+        <v>24.64</v>
       </c>
       <c r="D105">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E105">
         <v>0.17</v>
       </c>
       <c r="F105">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G105">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H105">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-01 07:45:14</v>
+        <v>2023-10-03 10:52:56</v>
       </c>
       <c r="B106">
-        <v>22.69</v>
+        <v>22.3</v>
       </c>
       <c r="C106">
-        <v>25.8</v>
+        <v>24.64</v>
       </c>
       <c r="D106">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E106">
         <v>0.17</v>
       </c>
       <c r="F106">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H106">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-01 11:24:38</v>
+        <v>2023-10-03 14:31:01</v>
       </c>
       <c r="B107">
-        <v>22.59</v>
+        <v>22.3</v>
       </c>
       <c r="C107">
-        <v>25.8</v>
+        <v>24.64</v>
       </c>
       <c r="D107">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E107">
         <v>0.17</v>
       </c>
       <c r="F107">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G107">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H107">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-01 15:04:40</v>
+        <v>2023-10-03 18:06:30</v>
       </c>
       <c r="B108">
-        <v>22.59</v>
+        <v>22.1</v>
       </c>
       <c r="C108">
-        <v>25.8</v>
+        <v>24.64</v>
       </c>
       <c r="D108">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E108">
         <v>0.17</v>
       </c>
       <c r="F108">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G108">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H108">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-01 18:46:23</v>
+        <v>2023-10-03 21:45:49</v>
       </c>
       <c r="B109">
-        <v>22.59</v>
+        <v>22.1</v>
       </c>
       <c r="C109">
-        <v>25.8</v>
+        <v>24.64</v>
       </c>
       <c r="D109">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E109">
         <v>0.17</v>
       </c>
       <c r="F109">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G109">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H109">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-01 22:24:07</v>
+        <v>2023-10-04 01:25:46</v>
       </c>
       <c r="B110">
-        <v>22.59</v>
+        <v>22.1</v>
       </c>
       <c r="C110">
-        <v>25.8</v>
+        <v>24.64</v>
       </c>
       <c r="D110">
         <v>43</v>
@@ -3380,146 +3380,146 @@
         <v>0.17</v>
       </c>
       <c r="F110">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G110">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H110">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-02 01:59:24</v>
+        <v>2023-10-04 05:05:36</v>
       </c>
       <c r="B111">
-        <v>22.59</v>
+        <v>20.9</v>
       </c>
       <c r="C111">
         <v>25.8</v>
       </c>
       <c r="D111">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E111">
         <v>0.17</v>
       </c>
       <c r="F111">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H111">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-02 05:36:37</v>
+        <v>2023-10-04 08:46:33</v>
       </c>
       <c r="B112">
-        <v>22.59</v>
+        <v>20.9</v>
       </c>
       <c r="C112">
-        <v>25.87</v>
+        <v>25.8</v>
       </c>
       <c r="D112">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E112">
         <v>0.17</v>
       </c>
       <c r="F112">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H112">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-02 09:16:20</v>
+        <v>2023-10-04 12:25:33</v>
       </c>
       <c r="B113">
-        <v>22.58</v>
+        <v>20.9</v>
       </c>
       <c r="C113">
-        <v>25.87</v>
+        <v>25.8</v>
       </c>
       <c r="D113">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E113">
         <v>0.17</v>
       </c>
       <c r="F113">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G113">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H113">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-02 12:53:00</v>
+        <v>2023-10-04 16:01:31</v>
       </c>
       <c r="B114">
-        <v>22.58</v>
+        <v>20.9</v>
       </c>
       <c r="C114">
-        <v>25.87</v>
+        <v>25.8</v>
       </c>
       <c r="D114">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E114">
         <v>0.17</v>
       </c>
       <c r="F114">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H114">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-02 16:33:22</v>
+        <v>2023-10-04 19:39:25</v>
       </c>
       <c r="B115">
-        <v>22.58</v>
+        <v>20.8</v>
       </c>
       <c r="C115">
-        <v>25.87</v>
+        <v>25.8</v>
       </c>
       <c r="D115">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E115">
         <v>0.17</v>
@@ -3531,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="H115">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="I115">
         <v>3</v>
@@ -3539,13 +3539,13 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-02 20:14:58</v>
+        <v>2023-10-04 19:44:30</v>
       </c>
       <c r="B116">
-        <v>22.48</v>
+        <v>20.8</v>
       </c>
       <c r="C116">
-        <v>25.87</v>
+        <v>25.8</v>
       </c>
       <c r="D116">
         <v>42</v>
@@ -3560,21 +3560,21 @@
         <v>7</v>
       </c>
       <c r="H116">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-02 23:55:29</v>
+        <v>2023-10-04 23:26:09</v>
       </c>
       <c r="B117">
-        <v>22.3</v>
+        <v>20.8</v>
       </c>
       <c r="C117">
-        <v>25.87</v>
+        <v>25.8</v>
       </c>
       <c r="D117">
         <v>42</v>
@@ -3589,24 +3589,24 @@
         <v>7</v>
       </c>
       <c r="H117">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-03 03:34:23</v>
+        <v>2023-10-05 03:03:47</v>
       </c>
       <c r="B118">
-        <v>22.3</v>
+        <v>20.8</v>
       </c>
       <c r="C118">
-        <v>24.64</v>
+        <v>25.94</v>
       </c>
       <c r="D118">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E118">
         <v>0.17</v>
@@ -3615,24 +3615,24 @@
         <v>0.13</v>
       </c>
       <c r="G118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H118">
         <v>16</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-03 07:13:32</v>
+        <v>2023-10-05 06:40:58</v>
       </c>
       <c r="B119">
-        <v>22.3</v>
+        <v>20.8</v>
       </c>
       <c r="C119">
-        <v>24.64</v>
+        <v>25.94</v>
       </c>
       <c r="D119">
         <v>42</v>
@@ -3644,24 +3644,24 @@
         <v>0.13</v>
       </c>
       <c r="G119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H119">
         <v>16</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-03 10:52:56</v>
+        <v>2023-10-05 10:20:10</v>
       </c>
       <c r="B120">
-        <v>22.3</v>
+        <v>20.8</v>
       </c>
       <c r="C120">
-        <v>24.64</v>
+        <v>25.94</v>
       </c>
       <c r="D120">
         <v>42</v>
@@ -3673,24 +3673,24 @@
         <v>0.13</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H120">
         <v>16</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-03 14:31:01</v>
+        <v>2023-10-05 10:27:48</v>
       </c>
       <c r="B121">
-        <v>22.3</v>
+        <v>20.8</v>
       </c>
       <c r="C121">
-        <v>24.64</v>
+        <v>25.94</v>
       </c>
       <c r="D121">
         <v>42</v>
@@ -3702,7 +3702,7 @@
         <v>0.13</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H121">
         <v>16</v>
@@ -3713,16 +3713,16 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-03 18:06:30</v>
+        <v>2023-10-05 14:07:55</v>
       </c>
       <c r="B122">
-        <v>22.1</v>
+        <v>20.8</v>
       </c>
       <c r="C122">
-        <v>24.64</v>
+        <v>25.94</v>
       </c>
       <c r="D122">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E122">
         <v>0.17</v>
@@ -3731,7 +3731,7 @@
         <v>0.13</v>
       </c>
       <c r="G122">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H122">
         <v>16</v>
@@ -3742,16 +3742,16 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-03 21:45:49</v>
+        <v>2023-10-05 17:42:34</v>
       </c>
       <c r="B123">
-        <v>22.1</v>
+        <v>20.8</v>
       </c>
       <c r="C123">
-        <v>24.64</v>
+        <v>25.94</v>
       </c>
       <c r="D123">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E123">
         <v>0.17</v>
@@ -3760,7 +3760,7 @@
         <v>0.13</v>
       </c>
       <c r="G123">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H123">
         <v>16</v>
@@ -3771,25 +3771,25 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-04 01:25:46</v>
+        <v>2023-10-05 21:18:18</v>
       </c>
       <c r="B124">
-        <v>22.1</v>
+        <v>22.48</v>
       </c>
       <c r="C124">
-        <v>24.64</v>
+        <v>25.94</v>
       </c>
       <c r="D124">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E124">
         <v>0.17</v>
       </c>
       <c r="F124">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G124">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H124">
         <v>16</v>
@@ -3800,25 +3800,25 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-04 05:05:36</v>
+        <v>2023-10-06 00:56:21</v>
       </c>
       <c r="B125">
-        <v>20.9</v>
+        <v>22.38</v>
       </c>
       <c r="C125">
-        <v>25.8</v>
+        <v>25.94</v>
       </c>
       <c r="D125">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E125">
         <v>0.17</v>
       </c>
       <c r="F125">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H125">
         <v>16</v>
@@ -3829,25 +3829,25 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-04 08:46:33</v>
+        <v>2023-10-06 04:33:17</v>
       </c>
       <c r="B126">
-        <v>20.9</v>
+        <v>22.38</v>
       </c>
       <c r="C126">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="D126">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E126">
         <v>0.17</v>
       </c>
       <c r="F126">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H126">
         <v>16</v>
@@ -3858,25 +3858,25 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-04 12:25:33</v>
+        <v>2023-10-06 08:11:20</v>
       </c>
       <c r="B127">
-        <v>20.9</v>
+        <v>22.38</v>
       </c>
       <c r="C127">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="D127">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E127">
         <v>0.17</v>
       </c>
       <c r="F127">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H127">
         <v>16</v>
@@ -3887,25 +3887,25 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-04 16:01:31</v>
+        <v>2023-10-06 11:49:52</v>
       </c>
       <c r="B128">
-        <v>20.9</v>
+        <v>22.38</v>
       </c>
       <c r="C128">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="D128">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E128">
         <v>0.17</v>
       </c>
       <c r="F128">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H128">
         <v>16</v>
@@ -3916,25 +3916,25 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-04 19:39:25</v>
+        <v>2023-10-06 15:29:34</v>
       </c>
       <c r="B129">
-        <v>20.8</v>
+        <v>22.28</v>
       </c>
       <c r="C129">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="D129">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E129">
         <v>0.17</v>
       </c>
       <c r="F129">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H129">
         <v>16</v>
@@ -3945,25 +3945,25 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-04 19:44:30</v>
+        <v>2023-10-06 19:08:03</v>
       </c>
       <c r="B130">
-        <v>20.8</v>
+        <v>22.28</v>
       </c>
       <c r="C130">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="D130">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E130">
         <v>0.17</v>
       </c>
       <c r="F130">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H130">
         <v>16</v>
@@ -3974,25 +3974,25 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-04 23:26:09</v>
+        <v>2023-10-06 22:47:58</v>
       </c>
       <c r="B131">
-        <v>20.8</v>
+        <v>22.28</v>
       </c>
       <c r="C131">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="D131">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E131">
         <v>0.17</v>
       </c>
       <c r="F131">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G131">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H131">
         <v>16</v>
@@ -4003,25 +4003,25 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-05 03:03:47</v>
+        <v>2023-10-07 02:28:02</v>
       </c>
       <c r="B132">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="C132">
-        <v>25.94</v>
+        <v>26.59</v>
       </c>
       <c r="D132">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E132">
         <v>0.17</v>
       </c>
       <c r="F132">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H132">
         <v>16</v>
@@ -4032,25 +4032,25 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-05 06:40:58</v>
+        <v>2023-10-07 06:03:52</v>
       </c>
       <c r="B133">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="C133">
-        <v>25.94</v>
+        <v>26.59</v>
       </c>
       <c r="D133">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E133">
         <v>0.17</v>
       </c>
       <c r="F133">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G133">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H133">
         <v>16</v>
@@ -4061,16 +4061,16 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-05 10:20:10</v>
+        <v>2023-10-07 09:40:00</v>
       </c>
       <c r="B134">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
       <c r="C134">
-        <v>25.94</v>
+        <v>26.59</v>
       </c>
       <c r="D134">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E134">
         <v>0.17</v>
@@ -4090,16 +4090,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-05 10:27:48</v>
+        <v>2023-10-07 13:17:59</v>
       </c>
       <c r="B135">
-        <v>20.8</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>25.94</v>
+        <v>26.59</v>
       </c>
       <c r="D135">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E135">
         <v>0.17</v>
@@ -4119,16 +4119,16 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-05 14:07:55</v>
+        <v>2023-10-07 16:55:56</v>
       </c>
       <c r="B136">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
       <c r="C136">
-        <v>25.94</v>
+        <v>26.59</v>
       </c>
       <c r="D136">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E136">
         <v>0.17</v>
@@ -4148,16 +4148,16 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-05 17:42:34</v>
+        <v>2023-10-07 20:38:28</v>
       </c>
       <c r="B137">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
       <c r="C137">
-        <v>25.94</v>
+        <v>26.59</v>
       </c>
       <c r="D137">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E137">
         <v>0.17</v>
@@ -4166,7 +4166,7 @@
         <v>0.13</v>
       </c>
       <c r="G137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H137">
         <v>16</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-05 21:18:18</v>
+        <v>2023-10-08 00:16:33</v>
       </c>
       <c r="B138">
-        <v>22.48</v>
+        <v>22.1</v>
       </c>
       <c r="C138">
-        <v>25.94</v>
+        <v>26.59</v>
       </c>
       <c r="D138">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E138">
         <v>0.17</v>
       </c>
       <c r="F138">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G138">
         <v>8</v>
@@ -4206,277 +4206,277 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-06 00:56:21</v>
+        <v>2023-10-08 03:57:32</v>
       </c>
       <c r="B139">
-        <v>22.38</v>
+        <v>22.1</v>
       </c>
       <c r="C139">
-        <v>25.94</v>
+        <v>26.59</v>
       </c>
       <c r="D139">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E139">
         <v>0.17</v>
       </c>
       <c r="F139">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G139">
         <v>8</v>
       </c>
       <c r="H139">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-06 04:33:17</v>
+        <v>2023-10-08 07:38:11</v>
       </c>
       <c r="B140">
-        <v>22.38</v>
+        <v>22.1</v>
       </c>
       <c r="C140">
-        <v>27.3</v>
+        <v>26.59</v>
       </c>
       <c r="D140">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E140">
         <v>0.17</v>
       </c>
       <c r="F140">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G140">
         <v>8</v>
       </c>
       <c r="H140">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-06 08:11:20</v>
+        <v>2023-10-08 11:18:11</v>
       </c>
       <c r="B141">
-        <v>22.38</v>
+        <v>22.1</v>
       </c>
       <c r="C141">
-        <v>27.3</v>
+        <v>26.59</v>
       </c>
       <c r="D141">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E141">
         <v>0.17</v>
       </c>
       <c r="F141">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G141">
         <v>8</v>
       </c>
       <c r="H141">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-06 11:49:52</v>
+        <v>2023-10-08 14:56:14</v>
       </c>
       <c r="B142">
-        <v>22.38</v>
+        <v>22.1</v>
       </c>
       <c r="C142">
-        <v>27.3</v>
+        <v>26.59</v>
       </c>
       <c r="D142">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E142">
         <v>0.17</v>
       </c>
       <c r="F142">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G142">
         <v>8</v>
       </c>
       <c r="H142">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-06 15:29:34</v>
+        <v>2023-10-08 18:29:03</v>
       </c>
       <c r="B143">
-        <v>22.28</v>
+        <v>22.1</v>
       </c>
       <c r="C143">
-        <v>27.3</v>
+        <v>26.59</v>
       </c>
       <c r="D143">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E143">
         <v>0.17</v>
       </c>
       <c r="F143">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G143">
         <v>8</v>
       </c>
       <c r="H143">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-06 19:08:03</v>
+        <v>2023-10-08 22:08:42</v>
       </c>
       <c r="B144">
-        <v>22.28</v>
+        <v>22.1</v>
       </c>
       <c r="C144">
-        <v>27.3</v>
+        <v>26.59</v>
       </c>
       <c r="D144">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E144">
         <v>0.17</v>
       </c>
       <c r="F144">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G144">
         <v>8</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-06 22:47:58</v>
+        <v>2023-10-09 01:51:25</v>
       </c>
       <c r="B145">
-        <v>22.28</v>
+        <v>22.1</v>
       </c>
       <c r="C145">
-        <v>27.3</v>
+        <v>26.59</v>
       </c>
       <c r="D145">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E145">
         <v>0.17</v>
       </c>
       <c r="F145">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G145">
         <v>8</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-07 02:28:02</v>
+        <v>2023-10-09 05:29:51</v>
       </c>
       <c r="B146">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="C146">
-        <v>26.59</v>
+        <v>26.72</v>
       </c>
       <c r="D146">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E146">
         <v>0.17</v>
       </c>
       <c r="F146">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G146">
         <v>8</v>
       </c>
       <c r="H146">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-07 06:03:52</v>
+        <v>2023-10-09 09:09:51</v>
       </c>
       <c r="B147">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="C147">
-        <v>26.59</v>
+        <v>26.72</v>
       </c>
       <c r="D147">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E147">
         <v>0.17</v>
       </c>
       <c r="F147">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G147">
         <v>8</v>
       </c>
       <c r="H147">
-        <v>16</v>
+        <v>16.39</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-07 09:40:00</v>
+        <v>2023-10-09 12:50:30</v>
       </c>
       <c r="B148">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="C148">
-        <v>26.59</v>
+        <v>26.72</v>
       </c>
       <c r="D148">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E148">
         <v>0.17</v>
@@ -4488,24 +4488,24 @@
         <v>7</v>
       </c>
       <c r="H148">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-07 13:17:59</v>
+        <v>2023-10-09 16:29:52</v>
       </c>
       <c r="B149">
         <v>22</v>
       </c>
       <c r="C149">
-        <v>26.59</v>
+        <v>26.72</v>
       </c>
       <c r="D149">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E149">
         <v>0.17</v>
@@ -4517,24 +4517,24 @@
         <v>7</v>
       </c>
       <c r="H149">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-07 16:55:56</v>
+        <v>2023-10-09 20:06:33</v>
       </c>
       <c r="B150">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="C150">
-        <v>26.59</v>
+        <v>26.72</v>
       </c>
       <c r="D150">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E150">
         <v>0.17</v>
@@ -4546,24 +4546,24 @@
         <v>7</v>
       </c>
       <c r="H150">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-07 20:38:28</v>
+        <v>2023-10-09 23:43:39</v>
       </c>
       <c r="B151">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="C151">
-        <v>26.59</v>
+        <v>26.72</v>
       </c>
       <c r="D151">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E151">
         <v>0.17</v>
@@ -4572,27 +4572,27 @@
         <v>0.13</v>
       </c>
       <c r="G151">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H151">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-08 00:16:33</v>
+        <v>2023-10-10 03:20:50</v>
       </c>
       <c r="B152">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="C152">
-        <v>26.59</v>
+        <v>27.36</v>
       </c>
       <c r="D152">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E152">
         <v>0.17</v>
@@ -4601,27 +4601,27 @@
         <v>0.13</v>
       </c>
       <c r="G152">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H152">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-08 03:57:32</v>
+        <v>2023-10-10 06:58:00</v>
       </c>
       <c r="B153">
-        <v>22.1</v>
+        <v>21.1</v>
       </c>
       <c r="C153">
-        <v>26.59</v>
+        <v>27.36</v>
       </c>
       <c r="D153">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E153">
         <v>0.17</v>
@@ -4630,27 +4630,27 @@
         <v>0.13</v>
       </c>
       <c r="G153">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H153">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="I153">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-08 07:38:11</v>
+        <v>2023-10-10 10:40:57</v>
       </c>
       <c r="B154">
-        <v>22.1</v>
+        <v>21.1</v>
       </c>
       <c r="C154">
-        <v>26.59</v>
+        <v>27.36</v>
       </c>
       <c r="D154">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E154">
         <v>0.17</v>
@@ -4662,24 +4662,24 @@
         <v>8</v>
       </c>
       <c r="H154">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="I154">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-08 11:18:11</v>
+        <v>2023-10-10 14:19:52</v>
       </c>
       <c r="B155">
-        <v>22.1</v>
+        <v>21.1</v>
       </c>
       <c r="C155">
-        <v>26.59</v>
+        <v>27.36</v>
       </c>
       <c r="D155">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E155">
         <v>0.17</v>
@@ -4691,24 +4691,24 @@
         <v>8</v>
       </c>
       <c r="H155">
-        <v>16.1</v>
+        <v>16.7</v>
       </c>
       <c r="I155">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-08 14:56:14</v>
+        <v>2023-10-10 18:00:28</v>
       </c>
       <c r="B156">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="C156">
-        <v>26.59</v>
+        <v>27.36</v>
       </c>
       <c r="D156">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E156">
         <v>0.17</v>
@@ -4720,24 +4720,24 @@
         <v>8</v>
       </c>
       <c r="H156">
-        <v>16.1</v>
+        <v>17.1</v>
       </c>
       <c r="I156">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-08 18:29:03</v>
+        <v>2023-10-10 21:41:38</v>
       </c>
       <c r="B157">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>26.59</v>
+        <v>27.36</v>
       </c>
       <c r="D157">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E157">
         <v>0.17</v>
@@ -4749,24 +4749,24 @@
         <v>8</v>
       </c>
       <c r="H157">
-        <v>16.1</v>
+        <v>17.1</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-08 22:08:42</v>
+        <v>2023-10-11 01:21:43</v>
       </c>
       <c r="B158">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="C158">
-        <v>26.59</v>
+        <v>27.36</v>
       </c>
       <c r="D158">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E158">
         <v>0.17</v>
@@ -4778,24 +4778,24 @@
         <v>8</v>
       </c>
       <c r="H158">
-        <v>16.2</v>
+        <v>17.1</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-09 01:51:25</v>
+        <v>2023-10-11 04:59:46</v>
       </c>
       <c r="B159">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="C159">
-        <v>26.59</v>
+        <v>27.11</v>
       </c>
       <c r="D159">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E159">
         <v>0.17</v>
@@ -4804,27 +4804,27 @@
         <v>0.13</v>
       </c>
       <c r="G159">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H159">
-        <v>16.2</v>
+        <v>17.1</v>
       </c>
       <c r="I159">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-09 05:29:51</v>
+        <v>2023-10-11 08:37:20</v>
       </c>
       <c r="B160">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="C160">
-        <v>26.72</v>
+        <v>27.11</v>
       </c>
       <c r="D160">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E160">
         <v>0.17</v>
@@ -4833,27 +4833,27 @@
         <v>0.13</v>
       </c>
       <c r="G160">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H160">
-        <v>16.2</v>
+        <v>17.1</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-09 09:09:51</v>
+        <v>2023-10-11 12:13:54</v>
       </c>
       <c r="B161">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="C161">
-        <v>26.72</v>
+        <v>27.11</v>
       </c>
       <c r="D161">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E161">
         <v>0.17</v>
@@ -4862,10 +4862,10 @@
         <v>0.13</v>
       </c>
       <c r="G161">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H161">
-        <v>16.39</v>
+        <v>17.1</v>
       </c>
       <c r="I161">
         <v>6</v>
@@ -4873,16 +4873,16 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-09 12:50:30</v>
+        <v>2023-10-11 12:19:39</v>
       </c>
       <c r="B162">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C162">
-        <v>26.72</v>
+        <v>27.11</v>
       </c>
       <c r="D162">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E162">
         <v>0.17</v>
@@ -4894,24 +4894,24 @@
         <v>7</v>
       </c>
       <c r="H162">
-        <v>16.5</v>
+        <v>17.1</v>
       </c>
       <c r="I162">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-09 16:29:52</v>
+        <v>2023-10-11 15:59:23</v>
       </c>
       <c r="B163">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C163">
-        <v>26.72</v>
+        <v>27.11</v>
       </c>
       <c r="D163">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E163">
         <v>0.17</v>
@@ -4923,24 +4923,24 @@
         <v>7</v>
       </c>
       <c r="H163">
-        <v>16.6</v>
+        <v>17.2</v>
       </c>
       <c r="I163">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-09 20:06:33</v>
+        <v>2023-10-11 19:39:27</v>
       </c>
       <c r="B164">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C164">
-        <v>26.72</v>
+        <v>27.11</v>
       </c>
       <c r="D164">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E164">
         <v>0.17</v>
@@ -4952,24 +4952,24 @@
         <v>7</v>
       </c>
       <c r="H164">
-        <v>16.6</v>
+        <v>17.3</v>
       </c>
       <c r="I164">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-09 23:43:39</v>
+        <v>2023-10-11 23:18:22</v>
       </c>
       <c r="B165">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C165">
-        <v>26.72</v>
+        <v>27.11</v>
       </c>
       <c r="D165">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E165">
         <v>0.17</v>
@@ -4981,24 +4981,24 @@
         <v>7</v>
       </c>
       <c r="H165">
-        <v>16.6</v>
+        <v>17.3</v>
       </c>
       <c r="I165">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-10 03:20:50</v>
+        <v>2023-10-12 02:54:45</v>
       </c>
       <c r="B166">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C166">
-        <v>27.36</v>
+        <v>27.04</v>
       </c>
       <c r="D166">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E166">
         <v>0.17</v>
@@ -5010,24 +5010,24 @@
         <v>7</v>
       </c>
       <c r="H166">
-        <v>16.6</v>
+        <v>17.3</v>
       </c>
       <c r="I166">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-10 06:58:00</v>
+        <v>2023-10-12 02:59:52</v>
       </c>
       <c r="B167">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C167">
-        <v>27.36</v>
+        <v>27.04</v>
       </c>
       <c r="D167">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E167">
         <v>0.17</v>
@@ -5039,24 +5039,24 @@
         <v>7</v>
       </c>
       <c r="H167">
-        <v>16.6</v>
+        <v>17.3</v>
       </c>
       <c r="I167">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-10 10:40:57</v>
+        <v>2023-10-12 06:39:06</v>
       </c>
       <c r="B168">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C168">
-        <v>27.36</v>
+        <v>27.04</v>
       </c>
       <c r="D168">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E168">
         <v>0.17</v>
@@ -5065,27 +5065,27 @@
         <v>0.13</v>
       </c>
       <c r="G168">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H168">
-        <v>16.6</v>
+        <v>17.3</v>
       </c>
       <c r="I168">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-10 14:19:52</v>
+        <v>2023-10-12 10:16:06</v>
       </c>
       <c r="B169">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C169">
-        <v>27.36</v>
+        <v>27.04</v>
       </c>
       <c r="D169">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E169">
         <v>0.17</v>
@@ -5094,27 +5094,27 @@
         <v>0.13</v>
       </c>
       <c r="G169">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H169">
-        <v>16.7</v>
+        <v>17.3</v>
       </c>
       <c r="I169">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-10 18:00:28</v>
+        <v>2023-10-12 13:53:12</v>
       </c>
       <c r="B170">
         <v>21</v>
       </c>
       <c r="C170">
-        <v>27.36</v>
+        <v>27.04</v>
       </c>
       <c r="D170">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E170">
         <v>0.17</v>
@@ -5123,39 +5123,39 @@
         <v>0.13</v>
       </c>
       <c r="G170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H170">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="I170">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-10 21:41:38</v>
+        <v>2023-10-12 17:32:26</v>
       </c>
       <c r="B171">
         <v>21</v>
       </c>
       <c r="C171">
-        <v>27.36</v>
+        <v>27.04</v>
       </c>
       <c r="D171">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E171">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F171">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G171">
         <v>8</v>
       </c>
       <c r="H171">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="I171">
         <v>6</v>
@@ -5163,28 +5163,28 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-11 01:21:43</v>
+        <v>2023-10-12 21:09:06</v>
       </c>
       <c r="B172">
         <v>21</v>
       </c>
       <c r="C172">
-        <v>27.36</v>
+        <v>27.04</v>
       </c>
       <c r="D172">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E172">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F172">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H172">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="I172">
         <v>6</v>
@@ -5192,28 +5192,28 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-11 04:59:46</v>
+        <v>2023-10-13 00:48:12</v>
       </c>
       <c r="B173">
         <v>21</v>
       </c>
       <c r="C173">
-        <v>27.11</v>
+        <v>27.04</v>
       </c>
       <c r="D173">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E173">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F173">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G173">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H173">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="I173">
         <v>6</v>
@@ -5221,13 +5221,13 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-11 08:37:20</v>
+        <v>2023-10-13 04:27:29</v>
       </c>
       <c r="B174">
         <v>21</v>
       </c>
       <c r="C174">
-        <v>27.11</v>
+        <v>27.3</v>
       </c>
       <c r="D174">
         <v>47</v>
@@ -5236,13 +5236,13 @@
         <v>0.17</v>
       </c>
       <c r="F174">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G174">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H174">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="I174">
         <v>6</v>
@@ -5250,28 +5250,28 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-11 12:13:54</v>
+        <v>2023-10-13 08:06:07</v>
       </c>
       <c r="B175">
         <v>21</v>
       </c>
       <c r="C175">
-        <v>27.11</v>
+        <v>27.3</v>
       </c>
       <c r="D175">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E175">
         <v>0.17</v>
       </c>
       <c r="F175">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G175">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H175">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="I175">
         <v>6</v>
@@ -5279,28 +5279,28 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-11 12:19:39</v>
+        <v>2023-10-13 11:45:06</v>
       </c>
       <c r="B176">
         <v>21</v>
       </c>
       <c r="C176">
-        <v>27.11</v>
+        <v>27.3</v>
       </c>
       <c r="D176">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E176">
         <v>0.17</v>
       </c>
       <c r="F176">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G176">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H176">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="I176">
         <v>6</v>
@@ -5308,28 +5308,28 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-11 15:59:23</v>
+        <v>2023-10-13 15:24:32</v>
       </c>
       <c r="B177">
         <v>21</v>
       </c>
       <c r="C177">
-        <v>27.11</v>
+        <v>27.3</v>
       </c>
       <c r="D177">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E177">
         <v>0.17</v>
       </c>
       <c r="F177">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G177">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H177">
-        <v>17.2</v>
+        <v>17.6</v>
       </c>
       <c r="I177">
         <v>6</v>
@@ -5337,28 +5337,28 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-11 19:39:27</v>
+        <v>2023-10-13 19:03:04</v>
       </c>
       <c r="B178">
         <v>21</v>
       </c>
       <c r="C178">
-        <v>27.11</v>
+        <v>27.3</v>
       </c>
       <c r="D178">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E178">
         <v>0.17</v>
       </c>
       <c r="F178">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G178">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H178">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="I178">
         <v>6</v>
@@ -5366,13 +5366,13 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-11 23:18:22</v>
+        <v>2023-10-13 22:40:38</v>
       </c>
       <c r="B179">
         <v>21</v>
       </c>
       <c r="C179">
-        <v>27.11</v>
+        <v>27.3</v>
       </c>
       <c r="D179">
         <v>47</v>
@@ -5381,13 +5381,13 @@
         <v>0.17</v>
       </c>
       <c r="F179">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G179">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H179">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="I179">
         <v>6</v>
@@ -5395,13 +5395,13 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-12 02:54:45</v>
+        <v>2023-10-14 02:22:25</v>
       </c>
       <c r="B180">
         <v>21</v>
       </c>
       <c r="C180">
-        <v>27.04</v>
+        <v>30.36</v>
       </c>
       <c r="D180">
         <v>47</v>
@@ -5410,27 +5410,27 @@
         <v>0.17</v>
       </c>
       <c r="F180">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G180">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H180">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="I180">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-12 02:59:52</v>
+        <v>2023-10-14 06:01:53</v>
       </c>
       <c r="B181">
         <v>21</v>
       </c>
       <c r="C181">
-        <v>27.04</v>
+        <v>30.36</v>
       </c>
       <c r="D181">
         <v>47</v>
@@ -5439,27 +5439,27 @@
         <v>0.17</v>
       </c>
       <c r="F181">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G181">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H181">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="I181">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-12 06:39:06</v>
+        <v>2023-10-14 09:41:02</v>
       </c>
       <c r="B182">
         <v>21</v>
       </c>
       <c r="C182">
-        <v>27.04</v>
+        <v>30.36</v>
       </c>
       <c r="D182">
         <v>47</v>
@@ -5468,42 +5468,42 @@
         <v>0.17</v>
       </c>
       <c r="F182">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G182">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H182">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="I182">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-12 10:16:06</v>
+        <v>2023-10-14 13:22:19</v>
       </c>
       <c r="B183">
         <v>21</v>
       </c>
       <c r="C183">
-        <v>27.04</v>
+        <v>30.36</v>
       </c>
       <c r="D183">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E183">
         <v>0.17</v>
       </c>
       <c r="F183">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G183">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H183">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="I183">
         <v>6</v>
@@ -5511,77 +5511,77 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-12 13:53:12</v>
+        <v>2023-10-14 17:03:18</v>
       </c>
       <c r="B184">
         <v>21</v>
       </c>
       <c r="C184">
-        <v>27.04</v>
+        <v>30.36</v>
       </c>
       <c r="D184">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E184">
         <v>0.17</v>
       </c>
       <c r="F184">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G184">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H184">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="I184">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-12 17:32:26</v>
+        <v>2023-10-14 20:41:11</v>
       </c>
       <c r="B185">
         <v>21</v>
       </c>
       <c r="C185">
-        <v>27.04</v>
+        <v>30.36</v>
       </c>
       <c r="D185">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E185">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F185">
         <v>0.1</v>
       </c>
       <c r="G185">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H185">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="I185">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-12 21:09:06</v>
+        <v>2023-10-15 00:18:47</v>
       </c>
       <c r="B186">
         <v>21</v>
       </c>
       <c r="C186">
-        <v>27.04</v>
+        <v>30.36</v>
       </c>
       <c r="D186">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E186">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F186">
         <v>0.1</v>
@@ -5590,27 +5590,27 @@
         <v>9</v>
       </c>
       <c r="H186">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="I186">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-13 00:48:12</v>
+        <v>2023-10-15 03:53:38</v>
       </c>
       <c r="B187">
         <v>21</v>
       </c>
       <c r="C187">
-        <v>27.04</v>
+        <v>28.79</v>
       </c>
       <c r="D187">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E187">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F187">
         <v>0.1</v>
@@ -5619,24 +5619,24 @@
         <v>9</v>
       </c>
       <c r="H187">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="I187">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-13 04:27:29</v>
+        <v>2023-10-15 07:32:16</v>
       </c>
       <c r="B188">
         <v>21</v>
       </c>
       <c r="C188">
-        <v>27.3</v>
+        <v>28.79</v>
       </c>
       <c r="D188">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E188">
         <v>0.17</v>
@@ -5645,27 +5645,27 @@
         <v>0.1</v>
       </c>
       <c r="G188">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H188">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="I188">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-13 08:06:07</v>
+        <v>2023-10-15 11:11:34</v>
       </c>
       <c r="B189">
         <v>21</v>
       </c>
       <c r="C189">
-        <v>27.3</v>
+        <v>28.79</v>
       </c>
       <c r="D189">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E189">
         <v>0.17</v>
@@ -5674,10 +5674,10 @@
         <v>0.1</v>
       </c>
       <c r="G189">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H189">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="I189">
         <v>6</v>
@@ -5685,16 +5685,16 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-13 11:45:06</v>
+        <v>2023-10-15 14:52:37</v>
       </c>
       <c r="B190">
         <v>21</v>
       </c>
       <c r="C190">
-        <v>27.3</v>
+        <v>28.79</v>
       </c>
       <c r="D190">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E190">
         <v>0.17</v>
@@ -5703,10 +5703,10 @@
         <v>0.1</v>
       </c>
       <c r="G190">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H190">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="I190">
         <v>6</v>
@@ -5714,16 +5714,16 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-13 15:24:32</v>
+        <v>2023-10-15 18:32:11</v>
       </c>
       <c r="B191">
         <v>21</v>
       </c>
       <c r="C191">
-        <v>27.3</v>
+        <v>28.79</v>
       </c>
       <c r="D191">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E191">
         <v>0.17</v>
@@ -5732,27 +5732,27 @@
         <v>0.1</v>
       </c>
       <c r="G191">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H191">
-        <v>17.6</v>
+        <v>17.89</v>
       </c>
       <c r="I191">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-13 19:03:04</v>
+        <v>2023-10-15 22:11:55</v>
       </c>
       <c r="B192">
         <v>21</v>
       </c>
       <c r="C192">
-        <v>27.3</v>
+        <v>28.79</v>
       </c>
       <c r="D192">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E192">
         <v>0.17</v>
@@ -5761,27 +5761,27 @@
         <v>0.1</v>
       </c>
       <c r="G192">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H192">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="I192">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-13 22:40:38</v>
+        <v>2023-10-16 01:53:35</v>
       </c>
       <c r="B193">
         <v>21</v>
       </c>
       <c r="C193">
-        <v>27.3</v>
+        <v>28.79</v>
       </c>
       <c r="D193">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E193">
         <v>0.17</v>
@@ -5790,27 +5790,27 @@
         <v>0.1</v>
       </c>
       <c r="G193">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H193">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="I193">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-14 02:22:25</v>
+        <v>2023-10-16 05:31:03</v>
       </c>
       <c r="B194">
         <v>21</v>
       </c>
       <c r="C194">
-        <v>30.36</v>
+        <v>29.12</v>
       </c>
       <c r="D194">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E194">
         <v>0.17</v>
@@ -5819,27 +5819,27 @@
         <v>0.1</v>
       </c>
       <c r="G194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H194">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="I194">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-14 06:01:53</v>
+        <v>2023-10-16 09:06:05</v>
       </c>
       <c r="B195">
         <v>21</v>
       </c>
       <c r="C195">
-        <v>30.36</v>
+        <v>29.12</v>
       </c>
       <c r="D195">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E195">
         <v>0.17</v>
@@ -5848,27 +5848,27 @@
         <v>0.1</v>
       </c>
       <c r="G195">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H195">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="I195">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-14 09:41:02</v>
+        <v>2023-10-16 12:41:00</v>
       </c>
       <c r="B196">
         <v>21</v>
       </c>
       <c r="C196">
-        <v>30.36</v>
+        <v>29.12</v>
       </c>
       <c r="D196">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E196">
         <v>0.17</v>
@@ -5880,24 +5880,24 @@
         <v>8</v>
       </c>
       <c r="H196">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="I196">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-14 13:22:19</v>
+        <v>2023-10-16 16:16:35</v>
       </c>
       <c r="B197">
         <v>21</v>
       </c>
       <c r="C197">
-        <v>30.36</v>
+        <v>29.12</v>
       </c>
       <c r="D197">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E197">
         <v>0.17</v>
@@ -5909,24 +5909,24 @@
         <v>8</v>
       </c>
       <c r="H197">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="I197">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-14 17:03:18</v>
+        <v>2023-10-16 16:22:27</v>
       </c>
       <c r="B198">
         <v>21</v>
       </c>
       <c r="C198">
-        <v>30.36</v>
+        <v>29.12</v>
       </c>
       <c r="D198">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E198">
         <v>0.17</v>
@@ -5938,21 +5938,21 @@
         <v>8</v>
       </c>
       <c r="H198">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="I198">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-14 20:41:11</v>
+        <v>2023-10-16 20:04:41</v>
       </c>
       <c r="B199">
         <v>21</v>
       </c>
       <c r="C199">
-        <v>30.36</v>
+        <v>29.12</v>
       </c>
       <c r="D199">
         <v>48</v>
@@ -5964,27 +5964,27 @@
         <v>0.1</v>
       </c>
       <c r="G199">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H199">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="I199">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-15 00:18:47</v>
+        <v>2023-10-16 23:42:40</v>
       </c>
       <c r="B200">
         <v>21</v>
       </c>
       <c r="C200">
-        <v>30.36</v>
+        <v>29.12</v>
       </c>
       <c r="D200">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E200">
         <v>0.17</v>
@@ -5993,24 +5993,24 @@
         <v>0.1</v>
       </c>
       <c r="G200">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H200">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="I200">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-15 03:53:38</v>
+        <v>2023-10-17 03:23:40</v>
       </c>
       <c r="B201">
         <v>21</v>
       </c>
       <c r="C201">
-        <v>28.79</v>
+        <v>28.73</v>
       </c>
       <c r="D201">
         <v>49</v>
@@ -6025,21 +6025,21 @@
         <v>9</v>
       </c>
       <c r="H201">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="I201">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-15 07:32:16</v>
+        <v>2023-10-17 07:02:59</v>
       </c>
       <c r="B202">
         <v>21</v>
       </c>
       <c r="C202">
-        <v>28.79</v>
+        <v>28.73</v>
       </c>
       <c r="D202">
         <v>49</v>
@@ -6054,24 +6054,24 @@
         <v>9</v>
       </c>
       <c r="H202">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="I202">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-15 11:11:34</v>
+        <v>2023-10-17 10:43:18</v>
       </c>
       <c r="B203">
         <v>21</v>
       </c>
       <c r="C203">
-        <v>28.79</v>
+        <v>28.73</v>
       </c>
       <c r="D203">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E203">
         <v>0.17</v>
@@ -6080,27 +6080,27 @@
         <v>0.1</v>
       </c>
       <c r="G203">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H203">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="I203">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-15 14:52:37</v>
+        <v>2023-10-17 14:19:18</v>
       </c>
       <c r="B204">
         <v>21</v>
       </c>
       <c r="C204">
-        <v>28.79</v>
+        <v>28.73</v>
       </c>
       <c r="D204">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E204">
         <v>0.17</v>
@@ -6109,27 +6109,27 @@
         <v>0.1</v>
       </c>
       <c r="G204">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H204">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="I204">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-15 18:32:11</v>
+        <v>2023-10-17 17:56:05</v>
       </c>
       <c r="B205">
         <v>21</v>
       </c>
       <c r="C205">
-        <v>28.79</v>
+        <v>28.73</v>
       </c>
       <c r="D205">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E205">
         <v>0.17</v>
@@ -6138,24 +6138,24 @@
         <v>0.1</v>
       </c>
       <c r="G205">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H205">
-        <v>17.89</v>
+        <v>18</v>
       </c>
       <c r="I205">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-15 22:11:55</v>
+        <v>2023-10-17 21:34:39</v>
       </c>
       <c r="B206">
         <v>21</v>
       </c>
       <c r="C206">
-        <v>28.79</v>
+        <v>28.73</v>
       </c>
       <c r="D206">
         <v>49</v>
@@ -6167,27 +6167,27 @@
         <v>0.1</v>
       </c>
       <c r="G206">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H206">
         <v>18</v>
       </c>
       <c r="I206">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-16 01:53:35</v>
+        <v>2023-10-18 01:13:21</v>
       </c>
       <c r="B207">
         <v>21</v>
       </c>
       <c r="C207">
-        <v>28.79</v>
+        <v>28.73</v>
       </c>
       <c r="D207">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E207">
         <v>0.17</v>
@@ -6196,27 +6196,27 @@
         <v>0.1</v>
       </c>
       <c r="G207">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H207">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="I207">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-16 05:31:03</v>
+        <v>2023-10-18 04:54:45</v>
       </c>
       <c r="B208">
         <v>21</v>
       </c>
       <c r="C208">
-        <v>29.12</v>
+        <v>28.93</v>
       </c>
       <c r="D208">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E208">
         <v>0.17</v>
@@ -6225,27 +6225,27 @@
         <v>0.1</v>
       </c>
       <c r="G208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H208">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="I208">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>2023-10-16 09:06:05</v>
+        <v>2023-10-18 08:35:08</v>
       </c>
       <c r="B209">
         <v>21</v>
       </c>
       <c r="C209">
-        <v>29.12</v>
+        <v>28.93</v>
       </c>
       <c r="D209">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E209">
         <v>0.17</v>
@@ -6254,27 +6254,27 @@
         <v>0.1</v>
       </c>
       <c r="G209">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H209">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="I209">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>2023-10-16 12:41:00</v>
+        <v>2023-10-18 12:13:38</v>
       </c>
       <c r="B210">
         <v>21</v>
       </c>
       <c r="C210">
-        <v>29.12</v>
+        <v>28.93</v>
       </c>
       <c r="D210">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E210">
         <v>0.17</v>
@@ -6286,24 +6286,24 @@
         <v>8</v>
       </c>
       <c r="H210">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="I210">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>2023-10-16 16:16:35</v>
+        <v>2023-10-18 15:55:05</v>
       </c>
       <c r="B211">
         <v>21</v>
       </c>
       <c r="C211">
-        <v>29.12</v>
+        <v>28.93</v>
       </c>
       <c r="D211">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E211">
         <v>0.17</v>
@@ -6315,7 +6315,7 @@
         <v>8</v>
       </c>
       <c r="H211">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="I211">
         <v>8</v>
@@ -6323,16 +6323,16 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>2023-10-16 16:22:27</v>
+        <v>2023-10-18 19:33:34</v>
       </c>
       <c r="B212">
         <v>21</v>
       </c>
       <c r="C212">
-        <v>29.12</v>
+        <v>28.93</v>
       </c>
       <c r="D212">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E212">
         <v>0.17</v>
@@ -6344,24 +6344,24 @@
         <v>8</v>
       </c>
       <c r="H212">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="I212">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>2023-10-16 20:04:41</v>
+        <v>2023-10-18 23:12:45</v>
       </c>
       <c r="B213">
         <v>21</v>
       </c>
       <c r="C213">
-        <v>29.12</v>
+        <v>28.93</v>
       </c>
       <c r="D213">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E213">
         <v>0.17</v>
@@ -6373,24 +6373,24 @@
         <v>8</v>
       </c>
       <c r="H213">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="I213">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>2023-10-16 23:42:40</v>
+        <v>2023-10-19 02:47:19</v>
       </c>
       <c r="B214">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C214">
-        <v>29.12</v>
+        <v>30.61</v>
       </c>
       <c r="D214">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E214">
         <v>0.17</v>
@@ -6402,7 +6402,7 @@
         <v>8</v>
       </c>
       <c r="H214">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="I214">
         <v>7</v>
@@ -6410,16 +6410,16 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>2023-10-17 03:23:40</v>
+        <v>2023-10-19 06:26:02</v>
       </c>
       <c r="B215">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C215">
-        <v>28.73</v>
+        <v>30.61</v>
       </c>
       <c r="D215">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E215">
         <v>0.17</v>
@@ -6428,42 +6428,13 @@
         <v>0.1</v>
       </c>
       <c r="G215">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H215">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="I215">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="str">
-        <v>2023-10-17 07:02:59</v>
-      </c>
-      <c r="B216">
-        <v>21</v>
-      </c>
-      <c r="C216">
-        <v>28.73</v>
-      </c>
-      <c r="D216">
-        <v>49</v>
-      </c>
-      <c r="E216">
-        <v>0.17</v>
-      </c>
-      <c r="F216">
-        <v>0.1</v>
-      </c>
-      <c r="G216">
-        <v>9</v>
-      </c>
-      <c r="H216">
-        <v>18</v>
-      </c>
-      <c r="I216">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6475,7 +6446,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I216"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I215"/>
   </ignoredErrors>
 </worksheet>
 </file>